--- a/Data_II/^GSPC.xlsx
+++ b/Data_II/^GSPC.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogervasak/Desktop/GitHub/CapstoneII/Data_II/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{499A551B-D663-4643-AABA-5595BEC31C04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C74119-BCA1-F745-B76C-F712979FED06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="^GSPC" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'^GSPC'!$A$1:$G$1259</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -50,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -528,10 +538,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -886,12 +895,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1259"/>
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -919,7 +927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42352</v>
       </c>
@@ -942,7 +950,7 @@
         <v>4612440000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42353</v>
       </c>
@@ -965,7 +973,7 @@
         <v>4353540000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42354</v>
       </c>
@@ -988,7 +996,7 @@
         <v>4635450000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42355</v>
       </c>
@@ -1011,7 +1019,7 @@
         <v>4327390000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42356</v>
       </c>
@@ -1034,7 +1042,7 @@
         <v>6683070000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42359</v>
       </c>
@@ -1057,7 +1065,7 @@
         <v>3760280000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42360</v>
       </c>
@@ -1080,7 +1088,7 @@
         <v>3520860000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42361</v>
       </c>
@@ -1103,7 +1111,7 @@
         <v>3484090000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42362</v>
       </c>
@@ -1126,7 +1134,7 @@
         <v>1411860000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42366</v>
       </c>
@@ -1149,7 +1157,7 @@
         <v>2492510000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42367</v>
       </c>
@@ -1172,7 +1180,7 @@
         <v>2542000000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42368</v>
       </c>
@@ -1195,7 +1203,7 @@
         <v>2367430000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42369</v>
       </c>
@@ -1218,7 +1226,7 @@
         <v>2655330000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42373</v>
       </c>
@@ -1241,7 +1249,7 @@
         <v>4304880000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42374</v>
       </c>
@@ -1264,7 +1272,7 @@
         <v>3706620000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42375</v>
       </c>
@@ -1287,7 +1295,7 @@
         <v>4336660000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42376</v>
       </c>
@@ -1310,7 +1318,7 @@
         <v>5076590000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42377</v>
       </c>
@@ -1333,7 +1341,7 @@
         <v>4664940000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42380</v>
       </c>
@@ -1356,7 +1364,7 @@
         <v>4607290000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42381</v>
       </c>
@@ -1379,7 +1387,7 @@
         <v>4887260000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42382</v>
       </c>
@@ -1402,7 +1410,7 @@
         <v>5087030000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42383</v>
       </c>
@@ -1425,7 +1433,7 @@
         <v>5241110000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42384</v>
       </c>
@@ -1448,7 +1456,7 @@
         <v>5468460000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42388</v>
       </c>
@@ -1471,7 +1479,7 @@
         <v>4928350000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42389</v>
       </c>
@@ -1494,7 +1502,7 @@
         <v>6416070000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42390</v>
       </c>
@@ -1517,7 +1525,7 @@
         <v>5078810000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>42391</v>
       </c>
@@ -1540,7 +1548,7 @@
         <v>4901760000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42394</v>
       </c>
@@ -1563,7 +1571,7 @@
         <v>4401380000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42395</v>
       </c>
@@ -1586,7 +1594,7 @@
         <v>4357940000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42396</v>
       </c>
@@ -1609,7 +1617,7 @@
         <v>4754040000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42397</v>
       </c>
@@ -1632,7 +1640,7 @@
         <v>4693010000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42398</v>
       </c>
@@ -1655,7 +1663,7 @@
         <v>5497570000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42401</v>
       </c>
@@ -1678,7 +1686,7 @@
         <v>4322530000</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42402</v>
       </c>
@@ -1701,7 +1709,7 @@
         <v>4463190000</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42403</v>
       </c>
@@ -1724,7 +1732,7 @@
         <v>5172950000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42404</v>
       </c>
@@ -1747,7 +1755,7 @@
         <v>5193320000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42405</v>
       </c>
@@ -1770,7 +1778,7 @@
         <v>4929940000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42408</v>
       </c>
@@ -1793,7 +1801,7 @@
         <v>5636460000</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42409</v>
       </c>
@@ -1816,7 +1824,7 @@
         <v>5183220000</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42410</v>
       </c>
@@ -1839,7 +1847,7 @@
         <v>4471170000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42411</v>
       </c>
@@ -1862,7 +1870,7 @@
         <v>5500800000</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42412</v>
       </c>
@@ -1885,7 +1893,7 @@
         <v>4696920000</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42416</v>
       </c>
@@ -1908,7 +1916,7 @@
         <v>4570670000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>42417</v>
       </c>
@@ -1931,7 +1939,7 @@
         <v>5011540000</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42418</v>
       </c>
@@ -1954,7 +1962,7 @@
         <v>4436490000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>42419</v>
       </c>
@@ -1977,7 +1985,7 @@
         <v>4142850000</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>42422</v>
       </c>
@@ -2000,7 +2008,7 @@
         <v>4054710000</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>42423</v>
       </c>
@@ -2023,7 +2031,7 @@
         <v>3890650000</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>42424</v>
       </c>
@@ -2046,7 +2054,7 @@
         <v>4317250000</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>42425</v>
       </c>
@@ -2069,7 +2077,7 @@
         <v>4118210000</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>42426</v>
       </c>
@@ -2092,7 +2100,7 @@
         <v>4348510000</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>42429</v>
       </c>
@@ -2115,7 +2123,7 @@
         <v>4588180000</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>42430</v>
       </c>
@@ -2138,7 +2146,7 @@
         <v>4819750000</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>42431</v>
       </c>
@@ -2161,7 +2169,7 @@
         <v>4666610000</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>42432</v>
       </c>
@@ -2184,7 +2192,7 @@
         <v>5081700000</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>42433</v>
       </c>
@@ -2207,7 +2215,7 @@
         <v>6049930000</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>42436</v>
       </c>
@@ -2230,7 +2238,7 @@
         <v>4968180000</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>42437</v>
       </c>
@@ -2253,7 +2261,7 @@
         <v>4641650000</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>42438</v>
       </c>
@@ -2276,7 +2284,7 @@
         <v>4038120000</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>42439</v>
       </c>
@@ -2299,7 +2307,7 @@
         <v>4376790000</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>42440</v>
       </c>
@@ -2322,7 +2330,7 @@
         <v>4078620000</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>42443</v>
       </c>
@@ -2345,7 +2353,7 @@
         <v>3487850000</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>42444</v>
       </c>
@@ -2368,7 +2376,7 @@
         <v>3560280000</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>42445</v>
       </c>
@@ -2391,7 +2399,7 @@
         <v>4057020000</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>42446</v>
       </c>
@@ -2414,7 +2422,7 @@
         <v>4530480000</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>42447</v>
       </c>
@@ -2437,7 +2445,7 @@
         <v>6503140000</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>42450</v>
       </c>
@@ -2460,7 +2468,7 @@
         <v>3376600000</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>42451</v>
       </c>
@@ -2483,7 +2491,7 @@
         <v>3418460000</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>42452</v>
       </c>
@@ -2506,7 +2514,7 @@
         <v>3639510000</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>42453</v>
       </c>
@@ -2529,7 +2537,7 @@
         <v>3407720000</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>42457</v>
       </c>
@@ -2552,7 +2560,7 @@
         <v>2809090000</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>42458</v>
       </c>
@@ -2575,7 +2583,7 @@
         <v>3822330000</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>42459</v>
       </c>
@@ -2598,7 +2606,7 @@
         <v>3590310000</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>42460</v>
       </c>
@@ -2621,7 +2629,7 @@
         <v>3715280000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>42461</v>
       </c>
@@ -2644,7 +2652,7 @@
         <v>3749990000</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>42464</v>
       </c>
@@ -2667,7 +2675,7 @@
         <v>3485710000</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>42465</v>
       </c>
@@ -2690,7 +2698,7 @@
         <v>4154920000</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>42466</v>
       </c>
@@ -2713,7 +2721,7 @@
         <v>3750800000</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>42467</v>
       </c>
@@ -2736,7 +2744,7 @@
         <v>3801250000</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>42468</v>
       </c>
@@ -2759,7 +2767,7 @@
         <v>3359530000</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>42471</v>
       </c>
@@ -2782,7 +2790,7 @@
         <v>3567840000</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>42472</v>
       </c>
@@ -2805,7 +2813,7 @@
         <v>4239740000</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>42473</v>
       </c>
@@ -2828,7 +2836,7 @@
         <v>4191830000</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>42474</v>
       </c>
@@ -2851,7 +2859,7 @@
         <v>3765870000</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>42475</v>
       </c>
@@ -2874,7 +2882,7 @@
         <v>3701450000</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>42478</v>
       </c>
@@ -2897,7 +2905,7 @@
         <v>3316880000</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>42479</v>
       </c>
@@ -2920,7 +2928,7 @@
         <v>3896830000</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>42480</v>
       </c>
@@ -2943,7 +2951,7 @@
         <v>4184880000</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>42481</v>
       </c>
@@ -2966,7 +2974,7 @@
         <v>4175290000</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>42482</v>
       </c>
@@ -2989,7 +2997,7 @@
         <v>3790580000</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>42485</v>
       </c>
@@ -3012,7 +3020,7 @@
         <v>3319740000</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>42486</v>
       </c>
@@ -3035,7 +3043,7 @@
         <v>3557190000</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>42487</v>
       </c>
@@ -3058,7 +3066,7 @@
         <v>4100110000</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>42488</v>
       </c>
@@ -3081,7 +3089,7 @@
         <v>4309840000</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>42489</v>
       </c>
@@ -3104,7 +3112,7 @@
         <v>4704720000</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>42492</v>
       </c>
@@ -3127,7 +3135,7 @@
         <v>3841110000</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>42493</v>
       </c>
@@ -3150,7 +3158,7 @@
         <v>4173390000</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>42494</v>
       </c>
@@ -3173,7 +3181,7 @@
         <v>4058560000</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>42495</v>
       </c>
@@ -3196,7 +3204,7 @@
         <v>4008530000</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>42496</v>
       </c>
@@ -3219,7 +3227,7 @@
         <v>3796350000</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>42499</v>
       </c>
@@ -3242,7 +3250,7 @@
         <v>3788620000</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>42500</v>
       </c>
@@ -3265,7 +3273,7 @@
         <v>3600200000</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>42501</v>
       </c>
@@ -3288,7 +3296,7 @@
         <v>3821980000</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>42502</v>
       </c>
@@ -3311,7 +3319,7 @@
         <v>3782390000</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>42503</v>
       </c>
@@ -3334,7 +3342,7 @@
         <v>3579880000</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>42506</v>
       </c>
@@ -3357,7 +3365,7 @@
         <v>3501360000</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>42507</v>
       </c>
@@ -3380,7 +3388,7 @@
         <v>4108960000</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>42508</v>
       </c>
@@ -3403,7 +3411,7 @@
         <v>4101320000</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>42509</v>
       </c>
@@ -3426,7 +3434,7 @@
         <v>3846770000</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>42510</v>
       </c>
@@ -3449,7 +3457,7 @@
         <v>3507650000</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>42513</v>
       </c>
@@ -3472,7 +3480,7 @@
         <v>3055480000</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>42514</v>
       </c>
@@ -3495,7 +3503,7 @@
         <v>3627340000</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>42515</v>
       </c>
@@ -3518,7 +3526,7 @@
         <v>3859160000</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>42516</v>
       </c>
@@ -3541,7 +3549,7 @@
         <v>3230990000</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>42517</v>
       </c>
@@ -3564,7 +3572,7 @@
         <v>3079150000</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>42521</v>
       </c>
@@ -3587,7 +3595,7 @@
         <v>4514410000</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>42522</v>
       </c>
@@ -3610,7 +3618,7 @@
         <v>3525170000</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>42523</v>
       </c>
@@ -3633,7 +3641,7 @@
         <v>3632720000</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>42524</v>
       </c>
@@ -3656,7 +3664,7 @@
         <v>3627780000</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>42527</v>
       </c>
@@ -3679,7 +3687,7 @@
         <v>3442020000</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>42528</v>
       </c>
@@ -3702,7 +3710,7 @@
         <v>3534730000</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>42529</v>
       </c>
@@ -3725,7 +3733,7 @@
         <v>3562060000</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>42530</v>
       </c>
@@ -3748,7 +3756,7 @@
         <v>3290320000</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>42531</v>
       </c>
@@ -3771,7 +3779,7 @@
         <v>3515010000</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>42534</v>
       </c>
@@ -3794,7 +3802,7 @@
         <v>3392030000</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>42535</v>
       </c>
@@ -3817,7 +3825,7 @@
         <v>3759770000</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>42536</v>
       </c>
@@ -3840,7 +3848,7 @@
         <v>3544720000</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>42537</v>
       </c>
@@ -3863,7 +3871,7 @@
         <v>3628280000</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>42538</v>
       </c>
@@ -3886,7 +3894,7 @@
         <v>4952630000</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>42541</v>
       </c>
@@ -3909,7 +3917,7 @@
         <v>3467440000</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>42542</v>
       </c>
@@ -3932,7 +3940,7 @@
         <v>3232880000</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>42543</v>
       </c>
@@ -3955,7 +3963,7 @@
         <v>3168160000</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>42544</v>
       </c>
@@ -3978,7 +3986,7 @@
         <v>3297940000</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>42545</v>
       </c>
@@ -4001,7 +4009,7 @@
         <v>7597450000</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>42548</v>
       </c>
@@ -4024,7 +4032,7 @@
         <v>5431220000</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>42549</v>
       </c>
@@ -4047,7 +4055,7 @@
         <v>4385810000</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>42550</v>
       </c>
@@ -4070,7 +4078,7 @@
         <v>4241740000</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>42551</v>
       </c>
@@ -4093,7 +4101,7 @@
         <v>4622820000</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>42552</v>
       </c>
@@ -4116,7 +4124,7 @@
         <v>3458890000</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>42556</v>
       </c>
@@ -4139,7 +4147,7 @@
         <v>3658380000</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>42557</v>
       </c>
@@ -4162,7 +4170,7 @@
         <v>3909380000</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>42558</v>
       </c>
@@ -4185,7 +4193,7 @@
         <v>3604550000</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>42559</v>
       </c>
@@ -4208,7 +4216,7 @@
         <v>3607500000</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>42562</v>
       </c>
@@ -4231,7 +4239,7 @@
         <v>3253340000</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>42563</v>
       </c>
@@ -4254,7 +4262,7 @@
         <v>4097820000</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>42564</v>
       </c>
@@ -4277,7 +4285,7 @@
         <v>3502320000</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>42565</v>
       </c>
@@ -4300,7 +4308,7 @@
         <v>3465610000</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>42566</v>
       </c>
@@ -4323,7 +4331,7 @@
         <v>3122600000</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>42569</v>
       </c>
@@ -4346,7 +4354,7 @@
         <v>3009310000</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>42570</v>
       </c>
@@ -4369,7 +4377,7 @@
         <v>2968340000</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>42571</v>
       </c>
@@ -4392,7 +4400,7 @@
         <v>3211860000</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>42572</v>
       </c>
@@ -4415,7 +4423,7 @@
         <v>3438900000</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>42573</v>
       </c>
@@ -4438,7 +4446,7 @@
         <v>3023280000</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>42576</v>
       </c>
@@ -4461,7 +4469,7 @@
         <v>3057240000</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>42577</v>
       </c>
@@ -4484,7 +4492,7 @@
         <v>3442350000</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>42578</v>
       </c>
@@ -4507,7 +4515,7 @@
         <v>3995500000</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>42579</v>
       </c>
@@ -4530,7 +4538,7 @@
         <v>3664240000</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>42580</v>
       </c>
@@ -4553,7 +4561,7 @@
         <v>4038840000</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>42583</v>
       </c>
@@ -4576,7 +4584,7 @@
         <v>3505990000</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>42584</v>
       </c>
@@ -4599,7 +4607,7 @@
         <v>3848750000</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>42585</v>
       </c>
@@ -4622,7 +4630,7 @@
         <v>3786530000</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>42586</v>
       </c>
@@ -4645,7 +4653,7 @@
         <v>3709200000</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>42587</v>
       </c>
@@ -4668,7 +4676,7 @@
         <v>3663070000</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>42590</v>
       </c>
@@ -4691,7 +4699,7 @@
         <v>3327550000</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>42591</v>
       </c>
@@ -4714,7 +4722,7 @@
         <v>3334300000</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>42592</v>
       </c>
@@ -4737,7 +4745,7 @@
         <v>3254950000</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>42593</v>
       </c>
@@ -4760,7 +4768,7 @@
         <v>3423160000</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>42594</v>
       </c>
@@ -4783,7 +4791,7 @@
         <v>3000660000</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>42597</v>
       </c>
@@ -4806,7 +4814,7 @@
         <v>3078530000</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>42598</v>
       </c>
@@ -4829,7 +4837,7 @@
         <v>3196400000</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>42599</v>
       </c>
@@ -4852,7 +4860,7 @@
         <v>3388910000</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>42600</v>
       </c>
@@ -4875,7 +4883,7 @@
         <v>3300570000</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>42601</v>
       </c>
@@ -4898,7 +4906,7 @@
         <v>3084800000</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>42604</v>
       </c>
@@ -4921,7 +4929,7 @@
         <v>2777550000</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>42605</v>
       </c>
@@ -4944,7 +4952,7 @@
         <v>3041490000</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>42606</v>
       </c>
@@ -4967,7 +4975,7 @@
         <v>3148280000</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>42607</v>
       </c>
@@ -4990,7 +4998,7 @@
         <v>2969310000</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>42608</v>
       </c>
@@ -5013,7 +5021,7 @@
         <v>3342340000</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>42611</v>
       </c>
@@ -5036,7 +5044,7 @@
         <v>2654780000</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>42612</v>
       </c>
@@ -5059,7 +5067,7 @@
         <v>3006800000</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>42613</v>
       </c>
@@ -5082,7 +5090,7 @@
         <v>3766390000</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>42614</v>
       </c>
@@ -5105,7 +5113,7 @@
         <v>3392120000</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>42615</v>
       </c>
@@ -5128,7 +5136,7 @@
         <v>3091120000</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>42619</v>
       </c>
@@ -5151,7 +5159,7 @@
         <v>3447650000</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>42620</v>
       </c>
@@ -5174,7 +5182,7 @@
         <v>3319420000</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>42621</v>
       </c>
@@ -5197,7 +5205,7 @@
         <v>3727840000</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>42622</v>
       </c>
@@ -5220,7 +5228,7 @@
         <v>4233960000</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>42625</v>
       </c>
@@ -5243,7 +5251,7 @@
         <v>4010480000</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>42626</v>
       </c>
@@ -5266,7 +5274,7 @@
         <v>4141670000</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>42627</v>
       </c>
@@ -5289,7 +5297,7 @@
         <v>3664100000</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>42628</v>
       </c>
@@ -5312,7 +5320,7 @@
         <v>3373720000</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>42629</v>
       </c>
@@ -5335,7 +5343,7 @@
         <v>5014360000</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>42632</v>
       </c>
@@ -5358,7 +5366,7 @@
         <v>3163000000</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>42633</v>
       </c>
@@ -5381,7 +5389,7 @@
         <v>3140730000</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>42634</v>
       </c>
@@ -5404,7 +5412,7 @@
         <v>3712090000</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>42635</v>
       </c>
@@ -5427,7 +5435,7 @@
         <v>3552830000</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>42636</v>
       </c>
@@ -5450,7 +5458,7 @@
         <v>3317190000</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>42639</v>
       </c>
@@ -5473,7 +5481,7 @@
         <v>3216170000</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>42640</v>
       </c>
@@ -5496,7 +5504,7 @@
         <v>3437770000</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>42641</v>
       </c>
@@ -5519,7 +5527,7 @@
         <v>3891460000</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>42642</v>
       </c>
@@ -5542,7 +5550,7 @@
         <v>4249220000</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>42643</v>
       </c>
@@ -5565,7 +5573,7 @@
         <v>4173340000</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>42646</v>
       </c>
@@ -5588,7 +5596,7 @@
         <v>3137550000</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>42647</v>
       </c>
@@ -5611,7 +5619,7 @@
         <v>3750890000</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>42648</v>
       </c>
@@ -5634,7 +5642,7 @@
         <v>3906550000</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>42649</v>
       </c>
@@ -5657,7 +5665,7 @@
         <v>3461550000</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>42650</v>
       </c>
@@ -5680,7 +5688,7 @@
         <v>3619890000</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>42653</v>
       </c>
@@ -5703,7 +5711,7 @@
         <v>2916550000</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>42654</v>
       </c>
@@ -5726,7 +5734,7 @@
         <v>3438270000</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>42655</v>
       </c>
@@ -5749,7 +5757,7 @@
         <v>2977100000</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>42656</v>
       </c>
@@ -5772,7 +5780,7 @@
         <v>3580450000</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>42657</v>
       </c>
@@ -5795,7 +5803,7 @@
         <v>3228150000</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>42660</v>
       </c>
@@ -5818,7 +5826,7 @@
         <v>2830390000</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>42661</v>
       </c>
@@ -5841,7 +5849,7 @@
         <v>3170000000</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>42662</v>
       </c>
@@ -5864,7 +5872,7 @@
         <v>3362670000</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>42663</v>
       </c>
@@ -5887,7 +5895,7 @@
         <v>3337170000</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>42664</v>
       </c>
@@ -5910,7 +5918,7 @@
         <v>3448850000</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>42667</v>
       </c>
@@ -5933,7 +5941,7 @@
         <v>3357320000</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>42668</v>
       </c>
@@ -5956,7 +5964,7 @@
         <v>3751340000</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>42669</v>
       </c>
@@ -5979,7 +5987,7 @@
         <v>3775200000</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>42670</v>
       </c>
@@ -6002,7 +6010,7 @@
         <v>4204830000</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>42671</v>
       </c>
@@ -6025,7 +6033,7 @@
         <v>4019510000</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>42674</v>
       </c>
@@ -6048,7 +6056,7 @@
         <v>3922400000</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>42675</v>
       </c>
@@ -6071,7 +6079,7 @@
         <v>4532160000</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>42676</v>
       </c>
@@ -6094,7 +6102,7 @@
         <v>4248580000</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>42677</v>
       </c>
@@ -6117,7 +6125,7 @@
         <v>3886740000</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>42678</v>
       </c>
@@ -6140,7 +6148,7 @@
         <v>3837860000</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>42681</v>
       </c>
@@ -6163,7 +6171,7 @@
         <v>3736060000</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>42682</v>
       </c>
@@ -6186,7 +6194,7 @@
         <v>3916930000</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>42683</v>
       </c>
@@ -6209,7 +6217,7 @@
         <v>6264150000</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>42684</v>
       </c>
@@ -6232,7 +6240,7 @@
         <v>6451640000</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>42685</v>
       </c>
@@ -6255,7 +6263,7 @@
         <v>4988050000</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>42688</v>
       </c>
@@ -6278,7 +6286,7 @@
         <v>5367200000</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>42689</v>
       </c>
@@ -6301,7 +6309,7 @@
         <v>4543860000</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>42690</v>
       </c>
@@ -6324,7 +6332,7 @@
         <v>3830590000</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>42691</v>
       </c>
@@ -6347,7 +6355,7 @@
         <v>3809160000</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>42692</v>
       </c>
@@ -6370,7 +6378,7 @@
         <v>3572400000</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>42695</v>
       </c>
@@ -6393,7 +6401,7 @@
         <v>3607010000</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>42696</v>
       </c>
@@ -6416,7 +6424,7 @@
         <v>3957940000</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>42697</v>
       </c>
@@ -6439,7 +6447,7 @@
         <v>3418640000</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>42699</v>
       </c>
@@ -6462,7 +6470,7 @@
         <v>1584600000</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>42702</v>
       </c>
@@ -6485,7 +6493,7 @@
         <v>3505650000</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>42703</v>
       </c>
@@ -6508,7 +6516,7 @@
         <v>3706560000</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>42704</v>
       </c>
@@ -6531,7 +6539,7 @@
         <v>5533980000</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>42705</v>
       </c>
@@ -6554,7 +6562,7 @@
         <v>5063740000</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>42706</v>
       </c>
@@ -6577,7 +6585,7 @@
         <v>3779500000</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>42709</v>
       </c>
@@ -6600,7 +6608,7 @@
         <v>3895230000</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>42710</v>
       </c>
@@ -6623,7 +6631,7 @@
         <v>3855320000</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>42711</v>
       </c>
@@ -6646,7 +6654,7 @@
         <v>4501820000</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>42712</v>
       </c>
@@ -6669,7 +6677,7 @@
         <v>4200580000</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>42713</v>
       </c>
@@ -6692,7 +6700,7 @@
         <v>3884480000</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>42716</v>
       </c>
@@ -6715,7 +6723,7 @@
         <v>4034510000</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>42717</v>
       </c>
@@ -6738,7 +6746,7 @@
         <v>3857590000</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>42718</v>
       </c>
@@ -6761,7 +6769,7 @@
         <v>4406970000</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>42719</v>
       </c>
@@ -6784,7 +6792,7 @@
         <v>4168200000</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>42720</v>
       </c>
@@ -6807,7 +6815,7 @@
         <v>5920340000</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>42723</v>
       </c>
@@ -6830,7 +6838,7 @@
         <v>3248370000</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>42724</v>
       </c>
@@ -6853,7 +6861,7 @@
         <v>3298780000</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>42725</v>
       </c>
@@ -6876,7 +6884,7 @@
         <v>2852230000</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>42726</v>
       </c>
@@ -6899,7 +6907,7 @@
         <v>2876320000</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>42727</v>
       </c>
@@ -6922,7 +6930,7 @@
         <v>2020550000</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>42731</v>
       </c>
@@ -6945,7 +6953,7 @@
         <v>1987080000</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>42732</v>
       </c>
@@ -6968,7 +6976,7 @@
         <v>2392360000</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>42733</v>
       </c>
@@ -6991,7 +6999,7 @@
         <v>2336370000</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>42734</v>
       </c>
@@ -7014,7 +7022,7 @@
         <v>2670900000</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>42738</v>
       </c>
@@ -7037,7 +7045,7 @@
         <v>3770530000</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>42739</v>
       </c>
@@ -7060,7 +7068,7 @@
         <v>3764890000</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>42740</v>
       </c>
@@ -7083,7 +7091,7 @@
         <v>3761820000</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>42741</v>
       </c>
@@ -7106,7 +7114,7 @@
         <v>3339890000</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>42744</v>
       </c>
@@ -7129,7 +7137,7 @@
         <v>3217610000</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>42745</v>
       </c>
@@ -7152,7 +7160,7 @@
         <v>3638790000</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>42746</v>
       </c>
@@ -7175,7 +7183,7 @@
         <v>3620410000</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>42747</v>
       </c>
@@ -7198,7 +7206,7 @@
         <v>3462130000</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>42748</v>
       </c>
@@ -7221,7 +7229,7 @@
         <v>3081270000</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>42752</v>
       </c>
@@ -7244,7 +7252,7 @@
         <v>3584990000</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>42753</v>
       </c>
@@ -7267,7 +7275,7 @@
         <v>3315250000</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>42754</v>
       </c>
@@ -7290,7 +7298,7 @@
         <v>3165970000</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>42755</v>
       </c>
@@ -7313,7 +7321,7 @@
         <v>3524970000</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>42758</v>
       </c>
@@ -7336,7 +7344,7 @@
         <v>3152710000</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>42759</v>
       </c>
@@ -7359,7 +7367,7 @@
         <v>3810960000</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>42760</v>
       </c>
@@ -7382,7 +7390,7 @@
         <v>3846020000</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>42761</v>
       </c>
@@ -7405,7 +7413,7 @@
         <v>3610360000</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>42762</v>
       </c>
@@ -7428,7 +7436,7 @@
         <v>3135890000</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>42765</v>
       </c>
@@ -7451,7 +7459,7 @@
         <v>3591270000</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>42766</v>
       </c>
@@ -7474,7 +7482,7 @@
         <v>4087450000</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>42767</v>
       </c>
@@ -7497,7 +7505,7 @@
         <v>3916610000</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>42768</v>
       </c>
@@ -7520,7 +7528,7 @@
         <v>3807710000</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>42769</v>
       </c>
@@ -7543,7 +7551,7 @@
         <v>3597970000</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>42772</v>
       </c>
@@ -7566,7 +7574,7 @@
         <v>3109050000</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>42773</v>
       </c>
@@ -7589,7 +7597,7 @@
         <v>3448690000</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>42774</v>
       </c>
@@ -7612,7 +7620,7 @@
         <v>3609740000</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>42775</v>
       </c>
@@ -7635,7 +7643,7 @@
         <v>3677940000</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>42776</v>
       </c>
@@ -7658,7 +7666,7 @@
         <v>3475020000</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>42779</v>
       </c>
@@ -7681,7 +7689,7 @@
         <v>3349730000</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>42780</v>
       </c>
@@ -7704,7 +7712,7 @@
         <v>3520910000</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>42781</v>
       </c>
@@ -7727,7 +7735,7 @@
         <v>3775590000</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>42782</v>
       </c>
@@ -7750,7 +7758,7 @@
         <v>3672370000</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>42783</v>
       </c>
@@ -7773,7 +7781,7 @@
         <v>3513060000</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>42787</v>
       </c>
@@ -7796,7 +7804,7 @@
         <v>3579780000</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>42788</v>
       </c>
@@ -7819,7 +7827,7 @@
         <v>3468670000</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>42789</v>
       </c>
@@ -7842,7 +7850,7 @@
         <v>4015260000</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>42790</v>
       </c>
@@ -7865,7 +7873,7 @@
         <v>3831570000</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>42793</v>
       </c>
@@ -7888,7 +7896,7 @@
         <v>3582610000</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>42794</v>
       </c>
@@ -7911,7 +7919,7 @@
         <v>4210140000</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>42795</v>
       </c>
@@ -7934,7 +7942,7 @@
         <v>4345180000</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>42796</v>
       </c>
@@ -7957,7 +7965,7 @@
         <v>3821320000</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>42797</v>
       </c>
@@ -7980,7 +7988,7 @@
         <v>3555260000</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>42800</v>
       </c>
@@ -8003,7 +8011,7 @@
         <v>3232700000</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>42801</v>
       </c>
@@ -8026,7 +8034,7 @@
         <v>3518390000</v>
       </c>
     </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>42802</v>
       </c>
@@ -8049,7 +8057,7 @@
         <v>3812100000</v>
       </c>
     </row>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>42803</v>
       </c>
@@ -8072,7 +8080,7 @@
         <v>3716340000</v>
       </c>
     </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>42804</v>
       </c>
@@ -8095,7 +8103,7 @@
         <v>3432950000</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>42807</v>
       </c>
@@ -8118,7 +8126,7 @@
         <v>3133900000</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>42808</v>
       </c>
@@ -8141,7 +8149,7 @@
         <v>3172630000</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>42809</v>
       </c>
@@ -8164,7 +8172,7 @@
         <v>3906840000</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>42810</v>
       </c>
@@ -8187,7 +8195,7 @@
         <v>3365660000</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>42811</v>
       </c>
@@ -8210,7 +8218,7 @@
         <v>5178040000</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>42814</v>
       </c>
@@ -8233,7 +8241,7 @@
         <v>3054930000</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>42815</v>
       </c>
@@ -8256,7 +8264,7 @@
         <v>4265590000</v>
       </c>
     </row>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>42816</v>
       </c>
@@ -8279,7 +8287,7 @@
         <v>3572730000</v>
       </c>
     </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>42817</v>
       </c>
@@ -8302,7 +8310,7 @@
         <v>3260600000</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>42818</v>
       </c>
@@ -8325,7 +8333,7 @@
         <v>2975130000</v>
       </c>
     </row>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>42821</v>
       </c>
@@ -8348,7 +8356,7 @@
         <v>3240230000</v>
       </c>
     </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>42822</v>
       </c>
@@ -8371,7 +8379,7 @@
         <v>3367780000</v>
       </c>
     </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>42823</v>
       </c>
@@ -8394,7 +8402,7 @@
         <v>3106940000</v>
       </c>
     </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>42824</v>
       </c>
@@ -8417,7 +8425,7 @@
         <v>3158420000</v>
       </c>
     </row>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>42825</v>
       </c>
@@ -8440,7 +8448,7 @@
         <v>3354110000</v>
       </c>
     </row>
-    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>42828</v>
       </c>
@@ -8463,7 +8471,7 @@
         <v>3416400000</v>
       </c>
     </row>
-    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>42829</v>
       </c>
@@ -8486,7 +8494,7 @@
         <v>3206240000</v>
       </c>
     </row>
-    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>42830</v>
       </c>
@@ -8509,7 +8517,7 @@
         <v>3770520000</v>
       </c>
     </row>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>42831</v>
       </c>
@@ -8532,7 +8540,7 @@
         <v>3201920000</v>
       </c>
     </row>
-    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>42832</v>
       </c>
@@ -8555,7 +8563,7 @@
         <v>3053150000</v>
       </c>
     </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>42835</v>
       </c>
@@ -8578,7 +8586,7 @@
         <v>2785410000</v>
       </c>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>42836</v>
       </c>
@@ -8601,7 +8609,7 @@
         <v>3117420000</v>
       </c>
     </row>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>42837</v>
       </c>
@@ -8624,7 +8632,7 @@
         <v>3196950000</v>
       </c>
     </row>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>42838</v>
       </c>
@@ -8647,7 +8655,7 @@
         <v>3143890000</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>42842</v>
       </c>
@@ -8670,7 +8678,7 @@
         <v>2824710000</v>
       </c>
     </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>42843</v>
       </c>
@@ -8693,7 +8701,7 @@
         <v>3269840000</v>
       </c>
     </row>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>42844</v>
       </c>
@@ -8716,7 +8724,7 @@
         <v>3519900000</v>
       </c>
     </row>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>42845</v>
       </c>
@@ -8739,7 +8747,7 @@
         <v>3647420000</v>
       </c>
     </row>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>42846</v>
       </c>
@@ -8762,7 +8770,7 @@
         <v>3503360000</v>
       </c>
     </row>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>42849</v>
       </c>
@@ -8785,7 +8793,7 @@
         <v>3690650000</v>
       </c>
     </row>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>42850</v>
       </c>
@@ -8808,7 +8816,7 @@
         <v>3995240000</v>
       </c>
     </row>
-    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>42851</v>
       </c>
@@ -8831,7 +8839,7 @@
         <v>4105920000</v>
       </c>
     </row>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>42852</v>
       </c>
@@ -8854,7 +8862,7 @@
         <v>4098460000</v>
       </c>
     </row>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>42853</v>
       </c>
@@ -8877,7 +8885,7 @@
         <v>3718270000</v>
       </c>
     </row>
-    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>42856</v>
       </c>
@@ -8900,7 +8908,7 @@
         <v>3199240000</v>
       </c>
     </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>42857</v>
       </c>
@@ -8923,7 +8931,7 @@
         <v>3813680000</v>
       </c>
     </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>42858</v>
       </c>
@@ -8946,7 +8954,7 @@
         <v>3893990000</v>
       </c>
     </row>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>42859</v>
       </c>
@@ -8969,7 +8977,7 @@
         <v>4362540000</v>
       </c>
     </row>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>42860</v>
       </c>
@@ -8992,7 +9000,7 @@
         <v>3540140000</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>42863</v>
       </c>
@@ -9015,7 +9023,7 @@
         <v>3429440000</v>
       </c>
     </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>42864</v>
       </c>
@@ -9038,7 +9046,7 @@
         <v>3653590000</v>
       </c>
     </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>42865</v>
       </c>
@@ -9061,7 +9069,7 @@
         <v>3643530000</v>
       </c>
     </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>42866</v>
       </c>
@@ -9084,7 +9092,7 @@
         <v>3727420000</v>
       </c>
     </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>42867</v>
       </c>
@@ -9107,7 +9115,7 @@
         <v>3305630000</v>
       </c>
     </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>42870</v>
       </c>
@@ -9130,7 +9138,7 @@
         <v>3473600000</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>42871</v>
       </c>
@@ -9153,7 +9161,7 @@
         <v>3420790000</v>
       </c>
     </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>42872</v>
       </c>
@@ -9176,7 +9184,7 @@
         <v>4163000000</v>
       </c>
     </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>42873</v>
       </c>
@@ -9199,7 +9207,7 @@
         <v>4319420000</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>42874</v>
       </c>
@@ -9222,7 +9230,7 @@
         <v>3825160000</v>
       </c>
     </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>42877</v>
       </c>
@@ -9245,7 +9253,7 @@
         <v>3172830000</v>
       </c>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>42878</v>
       </c>
@@ -9268,7 +9276,7 @@
         <v>3213570000</v>
       </c>
     </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>42879</v>
       </c>
@@ -9291,7 +9299,7 @@
         <v>3389900000</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>42880</v>
       </c>
@@ -9314,7 +9322,7 @@
         <v>3535390000</v>
       </c>
     </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>42881</v>
       </c>
@@ -9337,7 +9345,7 @@
         <v>2805040000</v>
       </c>
     </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>42885</v>
       </c>
@@ -9360,7 +9368,7 @@
         <v>3203160000</v>
       </c>
     </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>42886</v>
       </c>
@@ -9383,7 +9391,7 @@
         <v>4516110000</v>
       </c>
     </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>42887</v>
       </c>
@@ -9406,7 +9414,7 @@
         <v>3857140000</v>
       </c>
     </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>42888</v>
       </c>
@@ -9429,7 +9437,7 @@
         <v>3461680000</v>
       </c>
     </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>42891</v>
       </c>
@@ -9452,7 +9460,7 @@
         <v>2912600000</v>
       </c>
     </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>42892</v>
       </c>
@@ -9475,7 +9483,7 @@
         <v>3357840000</v>
       </c>
     </row>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>42893</v>
       </c>
@@ -9498,7 +9506,7 @@
         <v>3572300000</v>
       </c>
     </row>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>42894</v>
       </c>
@@ -9521,7 +9529,7 @@
         <v>3728860000</v>
       </c>
     </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>42895</v>
       </c>
@@ -9544,7 +9552,7 @@
         <v>4027340000</v>
       </c>
     </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>42898</v>
       </c>
@@ -9567,7 +9575,7 @@
         <v>4027750000</v>
       </c>
     </row>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>42899</v>
       </c>
@@ -9590,7 +9598,7 @@
         <v>3275500000</v>
       </c>
     </row>
-    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>42900</v>
       </c>
@@ -9613,7 +9621,7 @@
         <v>3555590000</v>
       </c>
     </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>42901</v>
       </c>
@@ -9636,7 +9644,7 @@
         <v>3353050000</v>
       </c>
     </row>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>42902</v>
       </c>
@@ -9659,7 +9667,7 @@
         <v>5284720000</v>
       </c>
     </row>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>42905</v>
       </c>
@@ -9682,7 +9690,7 @@
         <v>3264700000</v>
       </c>
     </row>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>42906</v>
       </c>
@@ -9705,7 +9713,7 @@
         <v>3416510000</v>
       </c>
     </row>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>42907</v>
       </c>
@@ -9728,7 +9736,7 @@
         <v>3594820000</v>
       </c>
     </row>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>42908</v>
       </c>
@@ -9751,7 +9759,7 @@
         <v>3468210000</v>
       </c>
     </row>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>42909</v>
       </c>
@@ -9774,7 +9782,7 @@
         <v>5278330000</v>
       </c>
     </row>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>42912</v>
       </c>
@@ -9797,7 +9805,7 @@
         <v>3238970000</v>
       </c>
     </row>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>42913</v>
       </c>
@@ -9820,7 +9828,7 @@
         <v>3563910000</v>
       </c>
     </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>42914</v>
       </c>
@@ -9843,7 +9851,7 @@
         <v>3500800000</v>
       </c>
     </row>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>42915</v>
       </c>
@@ -9866,7 +9874,7 @@
         <v>3900280000</v>
       </c>
     </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>42916</v>
       </c>
@@ -9889,7 +9897,7 @@
         <v>3361590000</v>
       </c>
     </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>42919</v>
       </c>
@@ -9912,7 +9920,7 @@
         <v>1962290000</v>
       </c>
     </row>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>42921</v>
       </c>
@@ -9935,7 +9943,7 @@
         <v>3367220000</v>
       </c>
     </row>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>42922</v>
       </c>
@@ -9958,7 +9966,7 @@
         <v>3364520000</v>
       </c>
     </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>42923</v>
       </c>
@@ -9981,7 +9989,7 @@
         <v>2901330000</v>
       </c>
     </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>42926</v>
       </c>
@@ -10004,7 +10012,7 @@
         <v>2999130000</v>
       </c>
     </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>42927</v>
       </c>
@@ -10027,7 +10035,7 @@
         <v>3106750000</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>42928</v>
       </c>
@@ -10050,7 +10058,7 @@
         <v>3171620000</v>
       </c>
     </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>42929</v>
       </c>
@@ -10073,7 +10081,7 @@
         <v>3067670000</v>
       </c>
     </row>
-    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>42930</v>
       </c>
@@ -10096,7 +10104,7 @@
         <v>2736640000</v>
       </c>
     </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>42933</v>
       </c>
@@ -10119,7 +10127,7 @@
         <v>2793170000</v>
       </c>
     </row>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>42934</v>
       </c>
@@ -10142,7 +10150,7 @@
         <v>2962130000</v>
       </c>
     </row>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>42935</v>
       </c>
@@ -10165,7 +10173,7 @@
         <v>3059760000</v>
       </c>
     </row>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>42936</v>
       </c>
@@ -10188,7 +10196,7 @@
         <v>3182780000</v>
       </c>
     </row>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>42937</v>
       </c>
@@ -10211,7 +10219,7 @@
         <v>3059570000</v>
       </c>
     </row>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>42940</v>
       </c>
@@ -10234,7 +10242,7 @@
         <v>3010240000</v>
       </c>
     </row>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>42941</v>
       </c>
@@ -10257,7 +10265,7 @@
         <v>4108060000</v>
       </c>
     </row>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>42942</v>
       </c>
@@ -10280,7 +10288,7 @@
         <v>3557020000</v>
       </c>
     </row>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>42943</v>
       </c>
@@ -10303,7 +10311,7 @@
         <v>3995520000</v>
       </c>
     </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>42944</v>
       </c>
@@ -10326,7 +10334,7 @@
         <v>3294770000</v>
       </c>
     </row>
-    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>42947</v>
       </c>
@@ -10349,7 +10357,7 @@
         <v>3469210000</v>
       </c>
     </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>42948</v>
       </c>
@@ -10372,7 +10380,7 @@
         <v>3460860000</v>
       </c>
     </row>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>42949</v>
       </c>
@@ -10395,7 +10403,7 @@
         <v>3478580000</v>
       </c>
     </row>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>42950</v>
       </c>
@@ -10418,7 +10426,7 @@
         <v>3645020000</v>
       </c>
     </row>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>42951</v>
       </c>
@@ -10441,7 +10449,7 @@
         <v>3235140000</v>
       </c>
     </row>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>42954</v>
       </c>
@@ -10464,7 +10472,7 @@
         <v>2931780000</v>
       </c>
     </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>42955</v>
       </c>
@@ -10487,7 +10495,7 @@
         <v>3344640000</v>
       </c>
     </row>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>42956</v>
       </c>
@@ -10510,7 +10518,7 @@
         <v>3308060000</v>
       </c>
     </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>42957</v>
       </c>
@@ -10533,7 +10541,7 @@
         <v>3621070000</v>
       </c>
     </row>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>42958</v>
       </c>
@@ -10556,7 +10564,7 @@
         <v>3159930000</v>
       </c>
     </row>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>42961</v>
       </c>
@@ -10579,7 +10587,7 @@
         <v>2822550000</v>
       </c>
     </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>42962</v>
       </c>
@@ -10602,7 +10610,7 @@
         <v>2913100000</v>
       </c>
     </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>42963</v>
       </c>
@@ -10625,7 +10633,7 @@
         <v>2953650000</v>
       </c>
     </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>42964</v>
       </c>
@@ -10648,7 +10656,7 @@
         <v>3142620000</v>
       </c>
     </row>
-    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>42965</v>
       </c>
@@ -10671,7 +10679,7 @@
         <v>3415680000</v>
       </c>
     </row>
-    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>42968</v>
       </c>
@@ -10694,7 +10702,7 @@
         <v>2788150000</v>
       </c>
     </row>
-    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>42969</v>
       </c>
@@ -10717,7 +10725,7 @@
         <v>2777490000</v>
       </c>
     </row>
-    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>42970</v>
       </c>
@@ -10740,7 +10748,7 @@
         <v>2785290000</v>
       </c>
     </row>
-    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>42971</v>
       </c>
@@ -10763,7 +10771,7 @@
         <v>2846590000</v>
       </c>
     </row>
-    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>42972</v>
       </c>
@@ -10786,7 +10794,7 @@
         <v>2588780000</v>
       </c>
     </row>
-    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>42975</v>
       </c>
@@ -10809,7 +10817,7 @@
         <v>2677700000</v>
       </c>
     </row>
-    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>42976</v>
       </c>
@@ -10832,7 +10840,7 @@
         <v>2737580000</v>
       </c>
     </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>42977</v>
       </c>
@@ -10855,7 +10863,7 @@
         <v>2633660000</v>
       </c>
     </row>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>42978</v>
       </c>
@@ -10878,7 +10886,7 @@
         <v>3348110000</v>
       </c>
     </row>
-    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>42979</v>
       </c>
@@ -10901,7 +10909,7 @@
         <v>2710730000</v>
       </c>
     </row>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>42983</v>
       </c>
@@ -10924,7 +10932,7 @@
         <v>3490260000</v>
       </c>
     </row>
-    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>42984</v>
       </c>
@@ -10947,7 +10955,7 @@
         <v>3374410000</v>
       </c>
     </row>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>42985</v>
       </c>
@@ -10970,7 +10978,7 @@
         <v>3353930000</v>
       </c>
     </row>
-    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>42986</v>
       </c>
@@ -10993,7 +11001,7 @@
         <v>3302490000</v>
       </c>
     </row>
-    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>42989</v>
       </c>
@@ -11016,7 +11024,7 @@
         <v>3291760000</v>
       </c>
     </row>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>42990</v>
       </c>
@@ -11039,7 +11047,7 @@
         <v>3230920000</v>
       </c>
     </row>
-    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>42991</v>
       </c>
@@ -11062,7 +11070,7 @@
         <v>3368050000</v>
       </c>
     </row>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>42992</v>
       </c>
@@ -11085,7 +11093,7 @@
         <v>3414460000</v>
       </c>
     </row>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>42993</v>
       </c>
@@ -11108,7 +11116,7 @@
         <v>4853170000</v>
       </c>
     </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>42996</v>
       </c>
@@ -11131,7 +11139,7 @@
         <v>3194300000</v>
       </c>
     </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>42997</v>
       </c>
@@ -11154,7 +11162,7 @@
         <v>3249100000</v>
       </c>
     </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>42998</v>
       </c>
@@ -11177,7 +11185,7 @@
         <v>3530010000</v>
       </c>
     </row>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>42999</v>
       </c>
@@ -11200,7 +11208,7 @@
         <v>2930860000</v>
       </c>
     </row>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>43000</v>
       </c>
@@ -11223,7 +11231,7 @@
         <v>2865960000</v>
       </c>
     </row>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>43003</v>
       </c>
@@ -11246,7 +11254,7 @@
         <v>3297890000</v>
       </c>
     </row>
-    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>43004</v>
       </c>
@@ -11269,7 +11277,7 @@
         <v>3043110000</v>
       </c>
     </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>43005</v>
       </c>
@@ -11292,7 +11300,7 @@
         <v>3456030000</v>
       </c>
     </row>
-    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>43006</v>
       </c>
@@ -11315,7 +11323,7 @@
         <v>3168620000</v>
       </c>
     </row>
-    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>43007</v>
       </c>
@@ -11338,7 +11346,7 @@
         <v>3211920000</v>
       </c>
     </row>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>43010</v>
       </c>
@@ -11361,7 +11369,7 @@
         <v>3199730000</v>
       </c>
     </row>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>43011</v>
       </c>
@@ -11384,7 +11392,7 @@
         <v>3068850000</v>
       </c>
     </row>
-    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>43012</v>
       </c>
@@ -11407,7 +11415,7 @@
         <v>3017120000</v>
       </c>
     </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>43013</v>
       </c>
@@ -11430,7 +11438,7 @@
         <v>3045120000</v>
       </c>
     </row>
-    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>43014</v>
       </c>
@@ -11453,7 +11461,7 @@
         <v>2884570000</v>
       </c>
     </row>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>43017</v>
       </c>
@@ -11476,7 +11484,7 @@
         <v>2483970000</v>
       </c>
     </row>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>43018</v>
       </c>
@@ -11499,7 +11507,7 @@
         <v>2960500000</v>
       </c>
     </row>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>43019</v>
       </c>
@@ -11522,7 +11530,7 @@
         <v>2976090000</v>
       </c>
     </row>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>43020</v>
       </c>
@@ -11545,7 +11553,7 @@
         <v>3151510000</v>
       </c>
     </row>
-    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>43021</v>
       </c>
@@ -11568,7 +11576,7 @@
         <v>3149440000</v>
       </c>
     </row>
-    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>43024</v>
       </c>
@@ -11591,7 +11599,7 @@
         <v>2916020000</v>
       </c>
     </row>
-    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>43025</v>
       </c>
@@ -11614,7 +11622,7 @@
         <v>2889390000</v>
       </c>
     </row>
-    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>43026</v>
       </c>
@@ -11637,7 +11645,7 @@
         <v>2998090000</v>
       </c>
     </row>
-    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>43027</v>
       </c>
@@ -11660,7 +11668,7 @@
         <v>2990710000</v>
       </c>
     </row>
-    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>43028</v>
       </c>
@@ -11683,7 +11691,7 @@
         <v>3384650000</v>
       </c>
     </row>
-    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>43031</v>
       </c>
@@ -11706,7 +11714,7 @@
         <v>3211710000</v>
       </c>
     </row>
-    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>43032</v>
       </c>
@@ -11729,7 +11737,7 @@
         <v>3427330000</v>
       </c>
     </row>
-    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>43033</v>
       </c>
@@ -11752,7 +11760,7 @@
         <v>3874510000</v>
       </c>
     </row>
-    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>43034</v>
       </c>
@@ -11775,7 +11783,7 @@
         <v>3869050000</v>
       </c>
     </row>
-    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>43035</v>
       </c>
@@ -11798,7 +11806,7 @@
         <v>3887110000</v>
       </c>
     </row>
-    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>43038</v>
       </c>
@@ -11821,7 +11829,7 @@
         <v>3658870000</v>
       </c>
     </row>
-    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>43039</v>
       </c>
@@ -11844,7 +11852,7 @@
         <v>3827230000</v>
       </c>
     </row>
-    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>43040</v>
       </c>
@@ -11867,7 +11875,7 @@
         <v>3813180000</v>
       </c>
     </row>
-    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>43041</v>
       </c>
@@ -11890,7 +11898,7 @@
         <v>4048270000</v>
       </c>
     </row>
-    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>43042</v>
       </c>
@@ -11913,7 +11921,7 @@
         <v>3567710000</v>
       </c>
     </row>
-    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>43045</v>
       </c>
@@ -11936,7 +11944,7 @@
         <v>3539080000</v>
       </c>
     </row>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>43046</v>
       </c>
@@ -11959,7 +11967,7 @@
         <v>3809650000</v>
       </c>
     </row>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>43047</v>
       </c>
@@ -11982,7 +11990,7 @@
         <v>3899360000</v>
       </c>
     </row>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>43048</v>
       </c>
@@ -12005,7 +12013,7 @@
         <v>3831610000</v>
       </c>
     </row>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>43049</v>
       </c>
@@ -12028,7 +12036,7 @@
         <v>3486910000</v>
       </c>
     </row>
-    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>43052</v>
       </c>
@@ -12051,7 +12059,7 @@
         <v>3402930000</v>
       </c>
     </row>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>43053</v>
       </c>
@@ -12074,7 +12082,7 @@
         <v>3641760000</v>
       </c>
     </row>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>43054</v>
       </c>
@@ -12097,7 +12105,7 @@
         <v>3558890000</v>
       </c>
     </row>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>43055</v>
       </c>
@@ -12120,7 +12128,7 @@
         <v>3312710000</v>
       </c>
     </row>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>43056</v>
       </c>
@@ -12143,7 +12151,7 @@
         <v>3300160000</v>
       </c>
     </row>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>43059</v>
       </c>
@@ -12166,7 +12174,7 @@
         <v>3003540000</v>
       </c>
     </row>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>43060</v>
       </c>
@@ -12189,7 +12197,7 @@
         <v>3332720000</v>
       </c>
     </row>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>43061</v>
       </c>
@@ -12212,7 +12220,7 @@
         <v>2762950000</v>
       </c>
     </row>
-    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>43063</v>
       </c>
@@ -12235,7 +12243,7 @@
         <v>1349780000</v>
       </c>
     </row>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>43066</v>
       </c>
@@ -12258,7 +12266,7 @@
         <v>3006860000</v>
       </c>
     </row>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>43067</v>
       </c>
@@ -12281,7 +12289,7 @@
         <v>3488420000</v>
       </c>
     </row>
-    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>43068</v>
       </c>
@@ -12304,7 +12312,7 @@
         <v>4078280000</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>43069</v>
       </c>
@@ -12327,7 +12335,7 @@
         <v>4938490000</v>
       </c>
     </row>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>43070</v>
       </c>
@@ -12350,7 +12358,7 @@
         <v>3942320000</v>
       </c>
     </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>43073</v>
       </c>
@@ -12373,7 +12381,7 @@
         <v>4023150000</v>
       </c>
     </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>43074</v>
       </c>
@@ -12396,7 +12404,7 @@
         <v>3539040000</v>
       </c>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>43075</v>
       </c>
@@ -12419,7 +12427,7 @@
         <v>3229000000</v>
       </c>
     </row>
-    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>43076</v>
       </c>
@@ -12442,7 +12450,7 @@
         <v>3292400000</v>
       </c>
     </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>43077</v>
       </c>
@@ -12465,7 +12473,7 @@
         <v>3106150000</v>
       </c>
     </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>43080</v>
       </c>
@@ -12488,7 +12496,7 @@
         <v>3091950000</v>
       </c>
     </row>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>43081</v>
       </c>
@@ -12511,7 +12519,7 @@
         <v>3555680000</v>
       </c>
     </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>43082</v>
       </c>
@@ -12534,7 +12542,7 @@
         <v>3542370000</v>
       </c>
     </row>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>43083</v>
       </c>
@@ -12557,7 +12565,7 @@
         <v>3430030000</v>
       </c>
     </row>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>43084</v>
       </c>
@@ -12580,7 +12588,7 @@
         <v>5723920000</v>
       </c>
     </row>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>43087</v>
       </c>
@@ -12603,7 +12611,7 @@
         <v>3724660000</v>
       </c>
     </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>43088</v>
       </c>
@@ -12626,7 +12634,7 @@
         <v>3368590000</v>
       </c>
     </row>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>43089</v>
       </c>
@@ -12649,7 +12657,7 @@
         <v>3241030000</v>
       </c>
     </row>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>43090</v>
       </c>
@@ -12672,7 +12680,7 @@
         <v>3273390000</v>
       </c>
     </row>
-    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>43091</v>
       </c>
@@ -12695,7 +12703,7 @@
         <v>2399830000</v>
       </c>
     </row>
-    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>43095</v>
       </c>
@@ -12718,7 +12726,7 @@
         <v>1968780000</v>
       </c>
     </row>
-    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>43096</v>
       </c>
@@ -12741,7 +12749,7 @@
         <v>2202080000</v>
       </c>
     </row>
-    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>43097</v>
       </c>
@@ -12764,7 +12772,7 @@
         <v>2153330000</v>
       </c>
     </row>
-    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>43098</v>
       </c>
@@ -29854,30 +29862,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1259">
-    <filterColumn colId="0">
-      <filters>
-        <dateGroupItem year="2020" dateTimeGrouping="year"/>
-        <dateGroupItem year="2019" dateTimeGrouping="year"/>
-        <dateGroupItem year="2018" dateTimeGrouping="year"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G1259" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C36"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29887,504 +29887,665 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B2">
+        <v>2043.9399410000001</v>
+      </c>
+      <c r="C2">
+        <v>2655330000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>42398</v>
+      </c>
+      <c r="B3">
+        <v>1940.23999</v>
+      </c>
+      <c r="C3">
+        <v>5497570000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B4">
+        <v>1932.2299800000001</v>
+      </c>
+      <c r="C4">
+        <v>4588180000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B5">
+        <v>2059.73999</v>
+      </c>
+      <c r="C5">
+        <v>3715280000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>42489</v>
+      </c>
+      <c r="B6">
+        <v>2065.3000489999999</v>
+      </c>
+      <c r="C6">
+        <v>4704720000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>42521</v>
+      </c>
+      <c r="B7">
+        <v>2096.9499510000001</v>
+      </c>
+      <c r="C7">
+        <v>4514410000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B8">
+        <v>2098.860107</v>
+      </c>
+      <c r="C8">
+        <v>4622820000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>42580</v>
+      </c>
+      <c r="B9">
+        <v>2173.6000979999999</v>
+      </c>
+      <c r="C9">
+        <v>4038840000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>42613</v>
+      </c>
+      <c r="B10">
+        <v>2170.9499510000001</v>
+      </c>
+      <c r="C10">
+        <v>3766390000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B11">
+        <v>2168.2700199999999</v>
+      </c>
+      <c r="C11">
+        <v>4173340000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>42674</v>
+      </c>
+      <c r="B12">
+        <v>2126.1499020000001</v>
+      </c>
+      <c r="C12">
+        <v>3922400000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>42704</v>
+      </c>
+      <c r="B13">
+        <v>2198.8100589999999</v>
+      </c>
+      <c r="C13">
+        <v>5533980000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>42734</v>
+      </c>
+      <c r="B14">
+        <v>2238.830078</v>
+      </c>
+      <c r="C14">
+        <v>2670900000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>42766</v>
+      </c>
+      <c r="B15">
+        <v>2278.8701169999999</v>
+      </c>
+      <c r="C15">
+        <v>4087450000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>42794</v>
+      </c>
+      <c r="B16">
+        <v>2363.639893</v>
+      </c>
+      <c r="C16">
+        <v>4210140000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B17">
+        <v>2362.719971</v>
+      </c>
+      <c r="C17">
+        <v>3354110000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>42853</v>
+      </c>
+      <c r="B18">
+        <v>2384.1999510000001</v>
+      </c>
+      <c r="C18">
+        <v>3718270000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>42886</v>
+      </c>
+      <c r="B19">
+        <v>2411.8000489999999</v>
+      </c>
+      <c r="C19">
+        <v>4516110000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B20">
+        <v>2423.4099120000001</v>
+      </c>
+      <c r="C20">
+        <v>3361590000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>42947</v>
+      </c>
+      <c r="B21">
+        <v>2470.3000489999999</v>
+      </c>
+      <c r="C21">
+        <v>3469210000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>42978</v>
+      </c>
+      <c r="B22">
+        <v>2471.6499020000001</v>
+      </c>
+      <c r="C22">
+        <v>3348110000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43007</v>
+      </c>
+      <c r="B23">
+        <v>2519.360107</v>
+      </c>
+      <c r="C23">
+        <v>3211920000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B24">
+        <v>2575.26001</v>
+      </c>
+      <c r="C24">
+        <v>3827230000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B25">
+        <v>2647.580078</v>
+      </c>
+      <c r="C25">
+        <v>4938490000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43098</v>
+      </c>
+      <c r="B26">
+        <v>2673.610107</v>
+      </c>
+      <c r="C26">
+        <v>2443490000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>43131</v>
       </c>
-      <c r="B2">
+      <c r="B27">
         <v>2823.8100589999999</v>
       </c>
-      <c r="C2">
+      <c r="C27">
         <v>4261280000</v>
       </c>
-      <c r="E2" s="2">
-        <v>43131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>43159</v>
       </c>
-      <c r="B3">
+      <c r="B28">
         <v>2713.830078</v>
       </c>
-      <c r="C3">
+      <c r="C28">
         <v>4230660000</v>
       </c>
-      <c r="E3" s="2">
-        <v>43159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>43188</v>
       </c>
-      <c r="B4">
+      <c r="B29">
         <v>2640.8701169999999</v>
       </c>
-      <c r="C4">
+      <c r="C29">
         <v>3565990000</v>
       </c>
-      <c r="E4" s="2">
-        <v>43190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>43220</v>
       </c>
-      <c r="B5">
+      <c r="B30">
         <v>2648.0500489999999</v>
       </c>
-      <c r="C5">
+      <c r="C30">
         <v>3734530000</v>
       </c>
-      <c r="E5" s="2">
-        <v>43220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>43251</v>
       </c>
-      <c r="B6">
+      <c r="B31">
         <v>2705.2700199999999</v>
       </c>
-      <c r="C6">
+      <c r="C31">
         <v>4235370000</v>
       </c>
-      <c r="E6" s="2">
-        <v>43251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>43280</v>
       </c>
-      <c r="B7">
+      <c r="B32">
         <v>2718.3701169999999</v>
       </c>
-      <c r="C7">
+      <c r="C32">
         <v>3565620000</v>
       </c>
-      <c r="E7" s="2">
-        <v>43281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>43312</v>
       </c>
-      <c r="B8">
+      <c r="B33">
         <v>2816.290039</v>
       </c>
-      <c r="C8">
+      <c r="C33">
         <v>3892100000</v>
       </c>
-      <c r="E8" s="2">
-        <v>43312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>43343</v>
       </c>
-      <c r="B9">
+      <c r="B34">
         <v>2901.5200199999999</v>
       </c>
-      <c r="C9">
+      <c r="C34">
         <v>2880260000</v>
       </c>
-      <c r="E9" s="2">
-        <v>43343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>43371</v>
       </c>
-      <c r="B10">
+      <c r="B35">
         <v>2913.9799800000001</v>
       </c>
-      <c r="C10">
+      <c r="C35">
         <v>3432300000</v>
       </c>
-      <c r="E10" s="2">
-        <v>43373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>43404</v>
       </c>
-      <c r="B11">
+      <c r="B36">
         <v>2711.73999</v>
       </c>
-      <c r="C11">
+      <c r="C36">
         <v>5112420000</v>
       </c>
-      <c r="E11" s="2">
-        <v>43404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>43434</v>
       </c>
-      <c r="B12">
+      <c r="B37">
         <v>2760.169922</v>
       </c>
-      <c r="C12">
+      <c r="C37">
         <v>4658580000</v>
       </c>
-      <c r="E12" s="2">
-        <v>43434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>43465</v>
       </c>
-      <c r="B13">
+      <c r="B38">
         <v>2506.8500979999999</v>
       </c>
-      <c r="C13">
+      <c r="C38">
         <v>3442870000</v>
       </c>
-      <c r="E13" s="2">
-        <v>43465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>43496</v>
       </c>
-      <c r="B14">
+      <c r="B39">
         <v>2704.1000979999999</v>
       </c>
-      <c r="C14">
+      <c r="C39">
         <v>4917650000</v>
       </c>
-      <c r="E14" s="2">
-        <v>43496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>43524</v>
       </c>
-      <c r="B15">
+      <c r="B40">
         <v>2784.48999</v>
       </c>
-      <c r="C15">
+      <c r="C40">
         <v>4396930000</v>
       </c>
-      <c r="E15" s="2">
-        <v>43524</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>43553</v>
       </c>
-      <c r="B16">
+      <c r="B41">
         <v>2834.3999020000001</v>
       </c>
-      <c r="C16">
+      <c r="C41">
         <v>3740700000</v>
       </c>
-      <c r="E16" s="2">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>43585</v>
       </c>
-      <c r="B17">
+      <c r="B42">
         <v>2945.830078</v>
       </c>
-      <c r="C17">
+      <c r="C42">
         <v>3919330000</v>
       </c>
-      <c r="E17" s="2">
-        <v>43585</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>43616</v>
       </c>
-      <c r="B18">
+      <c r="B43">
         <v>2752.0600589999999</v>
       </c>
-      <c r="C18">
+      <c r="C43">
         <v>3981020000</v>
       </c>
-      <c r="E18" s="2">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>43644</v>
       </c>
-      <c r="B19">
+      <c r="B44">
         <v>2941.76001</v>
       </c>
-      <c r="C19">
+      <c r="C44">
         <v>5420700000</v>
       </c>
-      <c r="E19" s="2">
-        <v>43646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>43677</v>
       </c>
-      <c r="B20">
+      <c r="B45">
         <v>2980.3798830000001</v>
       </c>
-      <c r="C20">
+      <c r="C45">
         <v>4623430000</v>
       </c>
-      <c r="E20" s="2">
-        <v>43677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>43707</v>
       </c>
-      <c r="B21">
+      <c r="B46">
         <v>2926.459961</v>
       </c>
-      <c r="C21">
+      <c r="C46">
         <v>3008450000</v>
       </c>
-      <c r="E21" s="2">
-        <v>43708</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>43738</v>
       </c>
-      <c r="B22">
+      <c r="B47">
         <v>2976.73999</v>
       </c>
-      <c r="C22">
+      <c r="C47">
         <v>3247610000</v>
       </c>
-      <c r="E22" s="2">
-        <v>43738</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>43769</v>
       </c>
-      <c r="B23">
+      <c r="B48">
         <v>3037.5600589999999</v>
       </c>
-      <c r="C23">
+      <c r="C48">
         <v>4139280000</v>
       </c>
-      <c r="E23" s="2">
-        <v>43769</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>43798</v>
       </c>
-      <c r="B24">
+      <c r="B49">
         <v>3140.9799800000001</v>
       </c>
-      <c r="C24">
+      <c r="C49">
         <v>1743020000</v>
       </c>
-      <c r="E24" s="2">
-        <v>43799</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>43830</v>
       </c>
-      <c r="B25">
+      <c r="B50">
         <v>3230.780029</v>
       </c>
-      <c r="C25">
+      <c r="C50">
         <v>2893810000</v>
       </c>
-      <c r="E25" s="2">
-        <v>43830</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>43861</v>
       </c>
-      <c r="B26">
+      <c r="B51">
         <v>3225.5200199999999</v>
       </c>
-      <c r="C26">
+      <c r="C51">
         <v>4527830000</v>
       </c>
-      <c r="E26" s="2">
-        <v>43861</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>43889</v>
       </c>
-      <c r="B27">
+      <c r="B52">
         <v>2954.219971</v>
       </c>
-      <c r="C27">
+      <c r="C52">
         <v>8563850000</v>
       </c>
-      <c r="E27" s="2">
-        <v>43890</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>43921</v>
       </c>
-      <c r="B28">
+      <c r="B53">
         <v>2584.5900879999999</v>
       </c>
-      <c r="C28">
+      <c r="C53">
         <v>6568290000</v>
       </c>
-      <c r="E28" s="2">
-        <v>43921</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>43951</v>
       </c>
-      <c r="B29">
+      <c r="B54">
         <v>2912.429932</v>
       </c>
-      <c r="C29">
+      <c r="C54">
         <v>6523120000</v>
       </c>
-      <c r="E29" s="2">
-        <v>43951</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>43980</v>
       </c>
-      <c r="B30">
+      <c r="B55">
         <v>3044.3100589999999</v>
       </c>
-      <c r="C30">
+      <c r="C55">
         <v>7275080000</v>
       </c>
-      <c r="E30" s="2">
-        <v>43982</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>44012</v>
       </c>
-      <c r="B31">
+      <c r="B56">
         <v>3100.290039</v>
       </c>
-      <c r="C31">
+      <c r="C56">
         <v>4696280000</v>
       </c>
-      <c r="E31" s="2">
-        <v>44012</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>44043</v>
       </c>
-      <c r="B32">
+      <c r="B57">
         <v>3271.1201169999999</v>
       </c>
-      <c r="C32">
+      <c r="C57">
         <v>5117260000</v>
       </c>
-      <c r="E32" s="2">
-        <v>44043</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>44074</v>
       </c>
-      <c r="B33">
+      <c r="B58">
         <v>3500.3100589999999</v>
       </c>
-      <c r="C33">
+      <c r="C58">
         <v>4342290000</v>
       </c>
-      <c r="E33" s="2">
-        <v>44074</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>44104</v>
       </c>
-      <c r="B34">
+      <c r="B59">
         <v>3363</v>
       </c>
-      <c r="C34">
+      <c r="C59">
         <v>4722530000</v>
       </c>
-      <c r="E34" s="2">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>44134</v>
       </c>
-      <c r="B35">
+      <c r="B60">
         <v>3269.959961</v>
       </c>
-      <c r="C35">
+      <c r="C60">
         <v>4840450000</v>
       </c>
-      <c r="E35" s="2">
-        <v>44135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>44165</v>
       </c>
-      <c r="B36">
+      <c r="B61">
         <v>3621.6298830000001</v>
       </c>
-      <c r="C36">
+      <c r="C61">
         <v>6291400000</v>
-      </c>
-      <c r="E36" s="2">
-        <v>44165</v>
       </c>
     </row>
   </sheetData>
